--- a/04.xlsx
+++ b/04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA89B8D-5EFC-455D-8048-72316407D080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D5FBC9-D502-460F-9F25-356E1B731600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="2963" windowWidth="28185" windowHeight="15030" xr2:uid="{364D8ACA-5D9E-42F8-A078-853F25B5E211}"/>
   </bookViews>
@@ -25,14 +25,12 @@
     <sheet name="サンプルサイズ (母平均既知)" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'母分散の検定 (母平均が未知)'!$A$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'母分散の検定 (母平均が未知)'!$A$4:$A$73</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'母分散の検定 (母平均が未知・作成例)'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'母分散の検定 (母平均が未知・作成例)'!$A$4:$A$73</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'分散の比較 (作成例)'!$C$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'分散の比較 (作成例)'!$C$4:$C$103</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'分散の比較 (作成例)'!$B$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'分散の比較 (作成例)'!$B$4:$B$103</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'母分散の検定 (母平均が未知・作成例)'!$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'母分散の検定 (母平均が未知・作成例)'!$A$4:$A$73</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'分散の比較 (作成例)'!$C$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'分散の比較 (作成例)'!$C$4:$C$103</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'分散の比較 (作成例)'!$B$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'分散の比較 (作成例)'!$B$4:$B$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>視聴時間</t>
     <rPh sb="0" eb="2">
@@ -613,7 +611,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1５0分以上人数</t>
+    <t>150分以上人数</t>
     <rPh sb="3" eb="4">
       <t>フン</t>
     </rPh>
@@ -622,6 +620,31 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※度数分布表を棒グラフにするとヒストグラムになる。棒の間隔を詰めて表示する</t>
+    <rPh sb="1" eb="3">
+      <t>ドスウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ブンプヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -769,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,9 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1544,7 +1564,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1583,7 +1603,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{2E3BB271-505F-42CC-9232-6CFD6AB66E6E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>視聴時間</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1614,7 +1634,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1653,7 +1673,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5C5D5B53-0C9F-4638-9D64-C8E20BABA2B0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>正規乱数</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1684,7 +1704,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1723,7 +1743,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{44A2A598-F58F-41C5-9972-A3ADD53DC7D7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>一様乱数</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7116,13 +7136,13 @@
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
     <row r="1" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="24"/>
+      <c r="A1" s="23"/>
     </row>
     <row r="2" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="25"/>
+      <c r="A2" s="24"/>
     </row>
     <row r="3" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="25"/>
+      <c r="A3" s="24"/>
     </row>
     <row r="4" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.7"/>
     <row r="5" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -7138,8 +7158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCFA4FA-6534-461B-B28E-1D98DA57ACAF}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -7179,19 +7199,19 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" aca="1" ref="B4:B103" ca="1">INT(_xlfn.NORM.INV(_xlfn.RANDARRAY(100),150,40))</f>
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:C103" ca="1">_xlfn.RANDARRAY(100,1,0,300,TRUE)</f>
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E4" s="15">
         <f ca="1">_xlfn.VAR.S(B4:B103)</f>
-        <v>1715.9329292929281</v>
+        <v>1422.4185858585854</v>
       </c>
       <c r="F4" s="15">
         <f ca="1">_xlfn.VAR.S(C4:C103)</f>
-        <v>7192.1958585858602</v>
+        <v>7485.8556565656563</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.7">
@@ -7200,11 +7220,11 @@
       </c>
       <c r="B5">
         <f ca="1"/>
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="C5">
         <f ca="1"/>
-        <v>169</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.7">
@@ -7213,11 +7233,11 @@
       </c>
       <c r="B6">
         <f ca="1"/>
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <f ca="1"/>
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.7">
@@ -7226,11 +7246,11 @@
       </c>
       <c r="B7">
         <f ca="1"/>
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="C7">
         <f ca="1"/>
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.7">
@@ -7239,11 +7259,11 @@
       </c>
       <c r="B8">
         <f ca="1"/>
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C8">
         <f ca="1"/>
-        <v>191</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.7">
@@ -7252,11 +7272,11 @@
       </c>
       <c r="B9">
         <f ca="1"/>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <f ca="1"/>
-        <v>211</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.7">
@@ -7265,11 +7285,11 @@
       </c>
       <c r="B10">
         <f ca="1"/>
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="C10">
         <f ca="1"/>
-        <v>82</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.7">
@@ -7278,11 +7298,11 @@
       </c>
       <c r="B11">
         <f ca="1"/>
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C11">
         <f ca="1"/>
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.7">
@@ -7291,11 +7311,11 @@
       </c>
       <c r="B12">
         <f ca="1"/>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <f ca="1"/>
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.7">
@@ -7304,11 +7324,11 @@
       </c>
       <c r="B13">
         <f ca="1"/>
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C13">
         <f ca="1"/>
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.7">
@@ -7317,11 +7337,11 @@
       </c>
       <c r="B14">
         <f ca="1"/>
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="C14">
         <f ca="1"/>
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.7">
@@ -7330,11 +7350,11 @@
       </c>
       <c r="B15">
         <f ca="1"/>
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="C15">
         <f ca="1"/>
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.7">
@@ -7343,11 +7363,11 @@
       </c>
       <c r="B16">
         <f ca="1"/>
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C16">
         <f ca="1"/>
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.7">
@@ -7356,11 +7376,11 @@
       </c>
       <c r="B17">
         <f ca="1"/>
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="C17">
         <f ca="1"/>
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.7">
@@ -7369,11 +7389,11 @@
       </c>
       <c r="B18">
         <f ca="1"/>
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C18">
         <f ca="1"/>
-        <v>64</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.7">
@@ -7382,11 +7402,11 @@
       </c>
       <c r="B19">
         <f ca="1"/>
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C19">
         <f ca="1"/>
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.7">
@@ -7395,11 +7415,11 @@
       </c>
       <c r="B20">
         <f ca="1"/>
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="C20">
         <f ca="1"/>
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.7">
@@ -7408,11 +7428,11 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>84</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.7">
@@ -7421,11 +7441,11 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.7">
@@ -7434,11 +7454,11 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.7">
@@ -7447,11 +7467,11 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>227</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.7">
@@ -7460,11 +7480,11 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>295</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.7">
@@ -7473,11 +7493,11 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>93</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.7">
@@ -7486,11 +7506,11 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>287</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.7">
@@ -7499,11 +7519,11 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>93</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.7">
@@ -7512,11 +7532,11 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>169</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.7">
@@ -7525,11 +7545,11 @@
       </c>
       <c r="B30">
         <f ca="1"/>
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="C30">
         <f ca="1"/>
-        <v>152</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.7">
@@ -7538,11 +7558,11 @@
       </c>
       <c r="B31">
         <f ca="1"/>
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C31">
         <f ca="1"/>
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.7">
@@ -7551,11 +7571,11 @@
       </c>
       <c r="B32">
         <f ca="1"/>
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="C32">
         <f ca="1"/>
-        <v>26</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.7">
@@ -7564,11 +7584,11 @@
       </c>
       <c r="B33">
         <f ca="1"/>
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C33">
         <f ca="1"/>
-        <v>127</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.7">
@@ -7577,11 +7597,11 @@
       </c>
       <c r="B34">
         <f ca="1"/>
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="C34">
         <f ca="1"/>
-        <v>215</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.7">
@@ -7590,11 +7610,11 @@
       </c>
       <c r="B35">
         <f ca="1"/>
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C35">
         <f ca="1"/>
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.7">
@@ -7603,11 +7623,11 @@
       </c>
       <c r="B36">
         <f ca="1"/>
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="C36">
         <f ca="1"/>
-        <v>205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.7">
@@ -7616,11 +7636,11 @@
       </c>
       <c r="B37">
         <f ca="1"/>
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C37">
         <f ca="1"/>
-        <v>52</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.7">
@@ -7629,11 +7649,11 @@
       </c>
       <c r="B38">
         <f ca="1"/>
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C38">
         <f ca="1"/>
-        <v>196</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.7">
@@ -7642,11 +7662,11 @@
       </c>
       <c r="B39">
         <f ca="1"/>
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="C39">
         <f ca="1"/>
-        <v>196</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.7">
@@ -7655,11 +7675,11 @@
       </c>
       <c r="B40">
         <f ca="1"/>
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="C40">
         <f ca="1"/>
-        <v>279</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.7">
@@ -7668,11 +7688,11 @@
       </c>
       <c r="B41">
         <f ca="1"/>
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C41">
         <f ca="1"/>
-        <v>139</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.7">
@@ -7681,11 +7701,11 @@
       </c>
       <c r="B42">
         <f ca="1"/>
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C42">
         <f ca="1"/>
-        <v>156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.7">
@@ -7694,11 +7714,11 @@
       </c>
       <c r="B43">
         <f ca="1"/>
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="C43">
         <f ca="1"/>
-        <v>27</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.7">
@@ -7707,11 +7727,11 @@
       </c>
       <c r="B44">
         <f ca="1"/>
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C44">
         <f ca="1"/>
-        <v>78</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.7">
@@ -7720,11 +7740,11 @@
       </c>
       <c r="B45">
         <f ca="1"/>
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C45">
         <f ca="1"/>
-        <v>42</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.7">
@@ -7733,11 +7753,11 @@
       </c>
       <c r="B46">
         <f ca="1"/>
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C46">
         <f ca="1"/>
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.7">
@@ -7746,11 +7766,11 @@
       </c>
       <c r="B47">
         <f ca="1"/>
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="C47">
         <f ca="1"/>
-        <v>126</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.7">
@@ -7759,11 +7779,11 @@
       </c>
       <c r="B48">
         <f ca="1"/>
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C48">
         <f ca="1"/>
-        <v>212</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.7">
@@ -7772,11 +7792,11 @@
       </c>
       <c r="B49">
         <f ca="1"/>
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C49">
         <f ca="1"/>
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.7">
@@ -7785,11 +7805,11 @@
       </c>
       <c r="B50">
         <f ca="1"/>
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="C50">
         <f ca="1"/>
-        <v>270</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.7">
@@ -7798,11 +7818,11 @@
       </c>
       <c r="B51">
         <f ca="1"/>
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="C51">
         <f ca="1"/>
-        <v>197</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.7">
@@ -7811,11 +7831,11 @@
       </c>
       <c r="B52">
         <f ca="1"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52">
         <f ca="1"/>
-        <v>165</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.7">
@@ -7824,11 +7844,11 @@
       </c>
       <c r="B53">
         <f ca="1"/>
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C53">
         <f ca="1"/>
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.7">
@@ -7837,11 +7857,11 @@
       </c>
       <c r="B54">
         <f ca="1"/>
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="C54">
         <f ca="1"/>
-        <v>175</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.7">
@@ -7850,11 +7870,11 @@
       </c>
       <c r="B55">
         <f ca="1"/>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C55">
         <f ca="1"/>
-        <v>23</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.7">
@@ -7863,11 +7883,11 @@
       </c>
       <c r="B56">
         <f ca="1"/>
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C56">
         <f ca="1"/>
-        <v>63</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.7">
@@ -7876,11 +7896,11 @@
       </c>
       <c r="B57">
         <f ca="1"/>
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C57">
         <f ca="1"/>
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.7">
@@ -7889,11 +7909,11 @@
       </c>
       <c r="B58">
         <f ca="1"/>
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C58">
         <f ca="1"/>
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.7">
@@ -7902,11 +7922,11 @@
       </c>
       <c r="B59">
         <f ca="1"/>
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C59">
         <f ca="1"/>
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.7">
@@ -7915,11 +7935,11 @@
       </c>
       <c r="B60">
         <f ca="1"/>
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C60">
         <f ca="1"/>
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.7">
@@ -7928,11 +7948,11 @@
       </c>
       <c r="B61">
         <f ca="1"/>
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C61">
         <f ca="1"/>
-        <v>272</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.7">
@@ -7941,11 +7961,11 @@
       </c>
       <c r="B62">
         <f ca="1"/>
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="C62">
         <f ca="1"/>
-        <v>130</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.7">
@@ -7954,11 +7974,11 @@
       </c>
       <c r="B63">
         <f ca="1"/>
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C63">
         <f ca="1"/>
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.7">
@@ -7967,11 +7987,11 @@
       </c>
       <c r="B64">
         <f ca="1"/>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C64">
         <f ca="1"/>
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.7">
@@ -7980,11 +8000,11 @@
       </c>
       <c r="B65">
         <f ca="1"/>
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="C65">
         <f ca="1"/>
-        <v>213</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.7">
@@ -7993,11 +8013,11 @@
       </c>
       <c r="B66">
         <f ca="1"/>
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C66">
         <f ca="1"/>
-        <v>111</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.7">
@@ -8006,11 +8026,11 @@
       </c>
       <c r="B67">
         <f ca="1"/>
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C67">
         <f ca="1"/>
-        <v>219</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.7">
@@ -8019,11 +8039,11 @@
       </c>
       <c r="B68">
         <f ca="1"/>
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C68">
         <f ca="1"/>
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.7">
@@ -8032,11 +8052,11 @@
       </c>
       <c r="B69">
         <f ca="1"/>
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C69">
         <f ca="1"/>
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.7">
@@ -8045,11 +8065,11 @@
       </c>
       <c r="B70">
         <f ca="1"/>
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C70">
         <f ca="1"/>
-        <v>91</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.7">
@@ -8058,11 +8078,11 @@
       </c>
       <c r="B71">
         <f ca="1"/>
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="C71">
         <f ca="1"/>
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.7">
@@ -8071,11 +8091,11 @@
       </c>
       <c r="B72">
         <f ca="1"/>
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="C72">
         <f ca="1"/>
-        <v>296</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.7">
@@ -8084,11 +8104,11 @@
       </c>
       <c r="B73">
         <f ca="1"/>
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="C73">
         <f ca="1"/>
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.7">
@@ -8097,11 +8117,11 @@
       </c>
       <c r="B74">
         <f ca="1"/>
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="C74">
         <f ca="1"/>
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.7">
@@ -8110,11 +8130,11 @@
       </c>
       <c r="B75">
         <f ca="1"/>
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C75">
         <f ca="1"/>
-        <v>170</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.7">
@@ -8123,11 +8143,11 @@
       </c>
       <c r="B76">
         <f ca="1"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C76">
         <f ca="1"/>
-        <v>269</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.7">
@@ -8136,11 +8156,11 @@
       </c>
       <c r="B77">
         <f ca="1"/>
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="C77">
         <f ca="1"/>
-        <v>32</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.7">
@@ -8149,11 +8169,11 @@
       </c>
       <c r="B78">
         <f ca="1"/>
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="C78">
         <f ca="1"/>
-        <v>222</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.7">
@@ -8162,11 +8182,11 @@
       </c>
       <c r="B79">
         <f ca="1"/>
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C79">
         <f ca="1"/>
-        <v>196</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.7">
@@ -8175,11 +8195,11 @@
       </c>
       <c r="B80">
         <f ca="1"/>
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="C80">
         <f ca="1"/>
-        <v>246</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.7">
@@ -8188,11 +8208,11 @@
       </c>
       <c r="B81">
         <f ca="1"/>
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="C81">
         <f ca="1"/>
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.7">
@@ -8201,11 +8221,11 @@
       </c>
       <c r="B82">
         <f ca="1"/>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C82">
         <f ca="1"/>
-        <v>274</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.7">
@@ -8214,11 +8234,11 @@
       </c>
       <c r="B83">
         <f ca="1"/>
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="C83">
         <f ca="1"/>
-        <v>214</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.7">
@@ -8227,11 +8247,11 @@
       </c>
       <c r="B84">
         <f ca="1"/>
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C84">
         <f ca="1"/>
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.7">
@@ -8240,11 +8260,11 @@
       </c>
       <c r="B85">
         <f ca="1"/>
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="C85">
         <f ca="1"/>
-        <v>196</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.7">
@@ -8253,11 +8273,11 @@
       </c>
       <c r="B86">
         <f ca="1"/>
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C86">
         <f ca="1"/>
-        <v>2</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.7">
@@ -8266,11 +8286,11 @@
       </c>
       <c r="B87">
         <f ca="1"/>
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C87">
         <f ca="1"/>
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.7">
@@ -8279,11 +8299,11 @@
       </c>
       <c r="B88">
         <f ca="1"/>
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="C88">
         <f ca="1"/>
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.7">
@@ -8292,11 +8312,11 @@
       </c>
       <c r="B89">
         <f ca="1"/>
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="C89">
         <f ca="1"/>
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.7">
@@ -8305,11 +8325,11 @@
       </c>
       <c r="B90">
         <f ca="1"/>
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C90">
         <f ca="1"/>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.7">
@@ -8318,11 +8338,11 @@
       </c>
       <c r="B91">
         <f ca="1"/>
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="C91">
         <f ca="1"/>
-        <v>163</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.7">
@@ -8331,11 +8351,11 @@
       </c>
       <c r="B92">
         <f ca="1"/>
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C92">
         <f ca="1"/>
-        <v>66</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.7">
@@ -8344,11 +8364,11 @@
       </c>
       <c r="B93">
         <f ca="1"/>
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C93">
         <f ca="1"/>
-        <v>23</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.7">
@@ -8357,11 +8377,11 @@
       </c>
       <c r="B94">
         <f ca="1"/>
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="C94">
         <f ca="1"/>
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.7">
@@ -8370,11 +8390,11 @@
       </c>
       <c r="B95">
         <f ca="1"/>
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="C95">
         <f ca="1"/>
-        <v>296</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.7">
@@ -8383,11 +8403,11 @@
       </c>
       <c r="B96">
         <f ca="1"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C96">
         <f ca="1"/>
-        <v>161</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.7">
@@ -8396,11 +8416,11 @@
       </c>
       <c r="B97">
         <f ca="1"/>
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C97">
         <f ca="1"/>
-        <v>143</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.7">
@@ -8409,11 +8429,11 @@
       </c>
       <c r="B98">
         <f ca="1"/>
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C98">
         <f ca="1"/>
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.7">
@@ -8422,11 +8442,11 @@
       </c>
       <c r="B99">
         <f ca="1"/>
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="C99">
         <f ca="1"/>
-        <v>274</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.7">
@@ -8435,11 +8455,11 @@
       </c>
       <c r="B100">
         <f ca="1"/>
-        <v>156</v>
+        <v>246</v>
       </c>
       <c r="C100">
         <f ca="1"/>
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.7">
@@ -8448,11 +8468,11 @@
       </c>
       <c r="B101">
         <f ca="1"/>
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C101">
         <f ca="1"/>
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.7">
@@ -8461,11 +8481,11 @@
       </c>
       <c r="B102">
         <f ca="1"/>
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C102">
         <f ca="1"/>
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.7">
@@ -8474,11 +8494,11 @@
       </c>
       <c r="B103" s="6">
         <f ca="1"/>
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="C103" s="6">
         <f ca="1"/>
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -8648,6 +8668,11 @@
       </c>
       <c r="P17" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.7">
+      <c r="P18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="19.899999999999999" x14ac:dyDescent="0.7">
@@ -19583,7 +19608,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="G8" s="23"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="16"/>
     </row>
   </sheetData>

--- a/04.xlsx
+++ b/04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D5FBC9-D502-460F-9F25-356E1B731600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58914504-764E-4588-A183-D1005DFB1506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="2963" windowWidth="28185" windowHeight="15030" xr2:uid="{364D8ACA-5D9E-42F8-A078-853F25B5E211}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>視聴時間</t>
     <rPh sb="0" eb="2">
@@ -645,6 +645,25 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>母分散の検定（母平均が既知の場合）</t>
+    <rPh sb="0" eb="3">
+      <t>ボブンサン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ボヘイキン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6288,7 +6307,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6709,7 +6728,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7199,19 +7218,19 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" aca="1" ref="B4:B103" ca="1">INT(_xlfn.NORM.INV(_xlfn.RANDARRAY(100),150,40))</f>
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:C103" ca="1">_xlfn.RANDARRAY(100,1,0,300,TRUE)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E4" s="15">
         <f ca="1">_xlfn.VAR.S(B4:B103)</f>
-        <v>1422.4185858585854</v>
+        <v>1570.8423232323221</v>
       </c>
       <c r="F4" s="15">
         <f ca="1">_xlfn.VAR.S(C4:C103)</f>
-        <v>7485.8556565656563</v>
+        <v>7514.9473737373737</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.7">
@@ -7220,11 +7239,11 @@
       </c>
       <c r="B5">
         <f ca="1"/>
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C5">
         <f ca="1"/>
-        <v>118</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.7">
@@ -7233,11 +7252,11 @@
       </c>
       <c r="B6">
         <f ca="1"/>
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C6">
         <f ca="1"/>
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.7">
@@ -7246,11 +7265,11 @@
       </c>
       <c r="B7">
         <f ca="1"/>
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="C7">
         <f ca="1"/>
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.7">
@@ -7259,11 +7278,11 @@
       </c>
       <c r="B8">
         <f ca="1"/>
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <f ca="1"/>
-        <v>83</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.7">
@@ -7272,11 +7291,11 @@
       </c>
       <c r="B9">
         <f ca="1"/>
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C9">
         <f ca="1"/>
-        <v>117</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.7">
@@ -7285,11 +7304,11 @@
       </c>
       <c r="B10">
         <f ca="1"/>
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <f ca="1"/>
-        <v>224</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.7">
@@ -7298,7 +7317,7 @@
       </c>
       <c r="B11">
         <f ca="1"/>
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="C11">
         <f ca="1"/>
@@ -7315,7 +7334,7 @@
       </c>
       <c r="C12">
         <f ca="1"/>
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.7">
@@ -7324,11 +7343,11 @@
       </c>
       <c r="B13">
         <f ca="1"/>
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="C13">
         <f ca="1"/>
-        <v>223</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.7">
@@ -7337,11 +7356,11 @@
       </c>
       <c r="B14">
         <f ca="1"/>
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="C14">
         <f ca="1"/>
-        <v>162</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.7">
@@ -7350,11 +7369,11 @@
       </c>
       <c r="B15">
         <f ca="1"/>
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <f ca="1"/>
-        <v>199</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.7">
@@ -7363,11 +7382,11 @@
       </c>
       <c r="B16">
         <f ca="1"/>
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <f ca="1"/>
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.7">
@@ -7376,11 +7395,11 @@
       </c>
       <c r="B17">
         <f ca="1"/>
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="C17">
         <f ca="1"/>
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.7">
@@ -7389,11 +7408,11 @@
       </c>
       <c r="B18">
         <f ca="1"/>
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <f ca="1"/>
-        <v>182</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.7">
@@ -7402,11 +7421,11 @@
       </c>
       <c r="B19">
         <f ca="1"/>
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C19">
         <f ca="1"/>
-        <v>77</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.7">
@@ -7415,11 +7434,11 @@
       </c>
       <c r="B20">
         <f ca="1"/>
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="C20">
         <f ca="1"/>
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.7">
@@ -7428,11 +7447,11 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.7">
@@ -7441,11 +7460,11 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>59</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.7">
@@ -7454,11 +7473,11 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>27</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.7">
@@ -7467,11 +7486,11 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>278</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.7">
@@ -7480,11 +7499,11 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.7">
@@ -7493,11 +7512,11 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>264</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.7">
@@ -7506,11 +7525,11 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>72</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.7">
@@ -7519,11 +7538,11 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>183</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.7">
@@ -7532,11 +7551,11 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>277</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.7">
@@ -7545,11 +7564,11 @@
       </c>
       <c r="B30">
         <f ca="1"/>
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C30">
         <f ca="1"/>
-        <v>99</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.7">
@@ -7558,11 +7577,11 @@
       </c>
       <c r="B31">
         <f ca="1"/>
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C31">
         <f ca="1"/>
-        <v>49</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.7">
@@ -7571,11 +7590,11 @@
       </c>
       <c r="B32">
         <f ca="1"/>
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="C32">
         <f ca="1"/>
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.7">
@@ -7584,7 +7603,7 @@
       </c>
       <c r="B33">
         <f ca="1"/>
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <f ca="1"/>
@@ -7597,11 +7616,11 @@
       </c>
       <c r="B34">
         <f ca="1"/>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C34">
         <f ca="1"/>
-        <v>257</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.7">
@@ -7610,11 +7629,11 @@
       </c>
       <c r="B35">
         <f ca="1"/>
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="C35">
         <f ca="1"/>
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.7">
@@ -7623,11 +7642,11 @@
       </c>
       <c r="B36">
         <f ca="1"/>
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C36">
         <f ca="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.7">
@@ -7636,11 +7655,11 @@
       </c>
       <c r="B37">
         <f ca="1"/>
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C37">
         <f ca="1"/>
-        <v>230</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.7">
@@ -7649,11 +7668,11 @@
       </c>
       <c r="B38">
         <f ca="1"/>
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <f ca="1"/>
-        <v>111</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.7">
@@ -7662,11 +7681,11 @@
       </c>
       <c r="B39">
         <f ca="1"/>
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="C39">
         <f ca="1"/>
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.7">
@@ -7675,11 +7694,11 @@
       </c>
       <c r="B40">
         <f ca="1"/>
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="C40">
         <f ca="1"/>
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.7">
@@ -7688,11 +7707,11 @@
       </c>
       <c r="B41">
         <f ca="1"/>
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C41">
         <f ca="1"/>
-        <v>56</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.7">
@@ -7701,11 +7720,11 @@
       </c>
       <c r="B42">
         <f ca="1"/>
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C42">
         <f ca="1"/>
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.7">
@@ -7714,11 +7733,11 @@
       </c>
       <c r="B43">
         <f ca="1"/>
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C43">
         <f ca="1"/>
-        <v>165</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.7">
@@ -7727,11 +7746,11 @@
       </c>
       <c r="B44">
         <f ca="1"/>
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="C44">
         <f ca="1"/>
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.7">
@@ -7740,11 +7759,11 @@
       </c>
       <c r="B45">
         <f ca="1"/>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C45">
         <f ca="1"/>
-        <v>202</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.7">
@@ -7753,11 +7772,11 @@
       </c>
       <c r="B46">
         <f ca="1"/>
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C46">
         <f ca="1"/>
-        <v>272</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.7">
@@ -7766,11 +7785,11 @@
       </c>
       <c r="B47">
         <f ca="1"/>
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="C47">
         <f ca="1"/>
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.7">
@@ -7779,11 +7798,11 @@
       </c>
       <c r="B48">
         <f ca="1"/>
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="C48">
         <f ca="1"/>
-        <v>87</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.7">
@@ -7792,11 +7811,11 @@
       </c>
       <c r="B49">
         <f ca="1"/>
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="C49">
         <f ca="1"/>
-        <v>108</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.7">
@@ -7805,11 +7824,11 @@
       </c>
       <c r="B50">
         <f ca="1"/>
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C50">
         <f ca="1"/>
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.7">
@@ -7818,11 +7837,11 @@
       </c>
       <c r="B51">
         <f ca="1"/>
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="C51">
         <f ca="1"/>
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.7">
@@ -7831,11 +7850,11 @@
       </c>
       <c r="B52">
         <f ca="1"/>
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C52">
         <f ca="1"/>
-        <v>244</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.7">
@@ -7844,11 +7863,11 @@
       </c>
       <c r="B53">
         <f ca="1"/>
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C53">
         <f ca="1"/>
-        <v>107</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.7">
@@ -7857,11 +7876,11 @@
       </c>
       <c r="B54">
         <f ca="1"/>
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C54">
         <f ca="1"/>
-        <v>280</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.7">
@@ -7870,11 +7889,11 @@
       </c>
       <c r="B55">
         <f ca="1"/>
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C55">
         <f ca="1"/>
-        <v>274</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.7">
@@ -7883,11 +7902,11 @@
       </c>
       <c r="B56">
         <f ca="1"/>
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C56">
         <f ca="1"/>
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.7">
@@ -7896,11 +7915,11 @@
       </c>
       <c r="B57">
         <f ca="1"/>
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C57">
         <f ca="1"/>
-        <v>8</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.7">
@@ -7909,11 +7928,11 @@
       </c>
       <c r="B58">
         <f ca="1"/>
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C58">
         <f ca="1"/>
-        <v>4</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.7">
@@ -7922,11 +7941,11 @@
       </c>
       <c r="B59">
         <f ca="1"/>
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C59">
         <f ca="1"/>
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.7">
@@ -7935,11 +7954,11 @@
       </c>
       <c r="B60">
         <f ca="1"/>
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C60">
         <f ca="1"/>
-        <v>49</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.7">
@@ -7948,11 +7967,11 @@
       </c>
       <c r="B61">
         <f ca="1"/>
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C61">
         <f ca="1"/>
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.7">
@@ -7961,11 +7980,11 @@
       </c>
       <c r="B62">
         <f ca="1"/>
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="C62">
         <f ca="1"/>
-        <v>297</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.7">
@@ -7974,11 +7993,11 @@
       </c>
       <c r="B63">
         <f ca="1"/>
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C63">
         <f ca="1"/>
-        <v>103</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.7">
@@ -7987,11 +8006,11 @@
       </c>
       <c r="B64">
         <f ca="1"/>
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C64">
         <f ca="1"/>
-        <v>290</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.7">
@@ -8000,11 +8019,11 @@
       </c>
       <c r="B65">
         <f ca="1"/>
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="C65">
         <f ca="1"/>
-        <v>69</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.7">
@@ -8013,11 +8032,11 @@
       </c>
       <c r="B66">
         <f ca="1"/>
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="C66">
         <f ca="1"/>
-        <v>193</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.7">
@@ -8026,11 +8045,11 @@
       </c>
       <c r="B67">
         <f ca="1"/>
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="C67">
         <f ca="1"/>
-        <v>88</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.7">
@@ -8039,11 +8058,11 @@
       </c>
       <c r="B68">
         <f ca="1"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C68">
         <f ca="1"/>
-        <v>15</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.7">
@@ -8052,11 +8071,11 @@
       </c>
       <c r="B69">
         <f ca="1"/>
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C69">
         <f ca="1"/>
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.7">
@@ -8065,11 +8084,11 @@
       </c>
       <c r="B70">
         <f ca="1"/>
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="C70">
         <f ca="1"/>
-        <v>178</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.7">
@@ -8078,11 +8097,11 @@
       </c>
       <c r="B71">
         <f ca="1"/>
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="C71">
         <f ca="1"/>
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.7">
@@ -8091,11 +8110,11 @@
       </c>
       <c r="B72">
         <f ca="1"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C72">
         <f ca="1"/>
-        <v>142</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.7">
@@ -8104,11 +8123,11 @@
       </c>
       <c r="B73">
         <f ca="1"/>
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="C73">
         <f ca="1"/>
-        <v>97</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.7">
@@ -8117,11 +8136,11 @@
       </c>
       <c r="B74">
         <f ca="1"/>
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="C74">
         <f ca="1"/>
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.7">
@@ -8130,11 +8149,11 @@
       </c>
       <c r="B75">
         <f ca="1"/>
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="C75">
         <f ca="1"/>
-        <v>229</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.7">
@@ -8143,11 +8162,11 @@
       </c>
       <c r="B76">
         <f ca="1"/>
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C76">
         <f ca="1"/>
-        <v>58</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.7">
@@ -8156,11 +8175,11 @@
       </c>
       <c r="B77">
         <f ca="1"/>
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="C77">
         <f ca="1"/>
-        <v>229</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.7">
@@ -8169,11 +8188,11 @@
       </c>
       <c r="B78">
         <f ca="1"/>
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C78">
         <f ca="1"/>
-        <v>77</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.7">
@@ -8182,11 +8201,11 @@
       </c>
       <c r="B79">
         <f ca="1"/>
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="C79">
         <f ca="1"/>
-        <v>120</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.7">
@@ -8195,11 +8214,11 @@
       </c>
       <c r="B80">
         <f ca="1"/>
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="C80">
         <f ca="1"/>
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.7">
@@ -8208,11 +8227,11 @@
       </c>
       <c r="B81">
         <f ca="1"/>
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="C81">
         <f ca="1"/>
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.7">
@@ -8221,11 +8240,11 @@
       </c>
       <c r="B82">
         <f ca="1"/>
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C82">
         <f ca="1"/>
-        <v>10</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.7">
@@ -8234,7 +8253,7 @@
       </c>
       <c r="B83">
         <f ca="1"/>
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="C83">
         <f ca="1"/>
@@ -8247,11 +8266,11 @@
       </c>
       <c r="B84">
         <f ca="1"/>
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C84">
         <f ca="1"/>
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.7">
@@ -8260,11 +8279,11 @@
       </c>
       <c r="B85">
         <f ca="1"/>
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="C85">
         <f ca="1"/>
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.7">
@@ -8273,7 +8292,7 @@
       </c>
       <c r="B86">
         <f ca="1"/>
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="C86">
         <f ca="1"/>
@@ -8286,11 +8305,11 @@
       </c>
       <c r="B87">
         <f ca="1"/>
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="C87">
         <f ca="1"/>
-        <v>89</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.7">
@@ -8299,11 +8318,11 @@
       </c>
       <c r="B88">
         <f ca="1"/>
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="C88">
         <f ca="1"/>
-        <v>279</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.7">
@@ -8312,11 +8331,11 @@
       </c>
       <c r="B89">
         <f ca="1"/>
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C89">
         <f ca="1"/>
-        <v>92</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.7">
@@ -8325,11 +8344,11 @@
       </c>
       <c r="B90">
         <f ca="1"/>
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C90">
         <f ca="1"/>
-        <v>21</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.7">
@@ -8338,11 +8357,11 @@
       </c>
       <c r="B91">
         <f ca="1"/>
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="C91">
         <f ca="1"/>
-        <v>242</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.7">
@@ -8351,11 +8370,11 @@
       </c>
       <c r="B92">
         <f ca="1"/>
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="C92">
         <f ca="1"/>
-        <v>153</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.7">
@@ -8364,11 +8383,11 @@
       </c>
       <c r="B93">
         <f ca="1"/>
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="C93">
         <f ca="1"/>
-        <v>166</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.7">
@@ -8377,11 +8396,11 @@
       </c>
       <c r="B94">
         <f ca="1"/>
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="C94">
         <f ca="1"/>
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.7">
@@ -8390,11 +8409,11 @@
       </c>
       <c r="B95">
         <f ca="1"/>
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="C95">
         <f ca="1"/>
-        <v>257</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.7">
@@ -8403,11 +8422,11 @@
       </c>
       <c r="B96">
         <f ca="1"/>
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C96">
         <f ca="1"/>
-        <v>201</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.7">
@@ -8416,11 +8435,11 @@
       </c>
       <c r="B97">
         <f ca="1"/>
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C97">
         <f ca="1"/>
-        <v>46</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.7">
@@ -8429,11 +8448,11 @@
       </c>
       <c r="B98">
         <f ca="1"/>
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="C98">
         <f ca="1"/>
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.7">
@@ -8442,11 +8461,11 @@
       </c>
       <c r="B99">
         <f ca="1"/>
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C99">
         <f ca="1"/>
-        <v>160</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.7">
@@ -8455,11 +8474,11 @@
       </c>
       <c r="B100">
         <f ca="1"/>
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="C100">
         <f ca="1"/>
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.7">
@@ -8468,11 +8487,11 @@
       </c>
       <c r="B101">
         <f ca="1"/>
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C101">
         <f ca="1"/>
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.7">
@@ -8481,11 +8500,11 @@
       </c>
       <c r="B102">
         <f ca="1"/>
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C102">
         <f ca="1"/>
-        <v>128</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.7">
@@ -8494,11 +8513,11 @@
       </c>
       <c r="B103" s="6">
         <f ca="1"/>
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C103" s="6">
         <f ca="1"/>
-        <v>250</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/04.xlsx
+++ b/04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58914504-764E-4588-A183-D1005DFB1506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDB161D-A842-4A83-A24A-DA6050EE002D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="2963" windowWidth="28185" windowHeight="15030" xr2:uid="{364D8ACA-5D9E-42F8-A078-853F25B5E211}"/>
   </bookViews>
@@ -27,10 +27,10 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'母分散の検定 (母平均が未知・作成例)'!$A$3</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'母分散の検定 (母平均が未知・作成例)'!$A$4:$A$73</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'分散の比較 (作成例)'!$C$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'分散の比較 (作成例)'!$C$4:$C$103</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'分散の比較 (作成例)'!$B$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'分散の比較 (作成例)'!$B$4:$B$103</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'分散の比較 (作成例)'!$B$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'分散の比較 (作成例)'!$B$4:$B$103</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'分散の比較 (作成例)'!$C$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'分散の比較 (作成例)'!$C$4:$C$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>視聴時間</t>
     <rPh sb="0" eb="2">
@@ -84,10 +84,6 @@
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s^2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -106,24 +102,6 @@
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -170,33 +148,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検定</t>
     <rPh sb="0" eb="2">
       <t>ケンテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S^2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -549,25 +504,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>効果量(k)</t>
     <rPh sb="0" eb="2">
       <t>コウカ</t>
@@ -667,6 +603,108 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -689,15 +727,6 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -738,6 +767,16 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -821,19 +860,19 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -842,19 +881,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -872,19 +911,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1653,7 +1692,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1692,7 +1731,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5C5D5B53-0C9F-4638-9D64-C8E20BABA2B0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>正規乱数</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1723,7 +1762,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1762,7 +1801,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{44A2A598-F58F-41C5-9972-A3ADD53DC7D7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>一様乱数</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5336,7 +5375,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5347,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -5356,7 +5395,7 @@
         <v>125</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <f>AVERAGE(A4:A73)</f>
@@ -5368,19 +5407,19 @@
         <v>210</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f>COUNT(A4:A73)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>190</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -5394,7 +5433,7 @@
         <v>180</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -5403,7 +5442,7 @@
         <v>150</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>4200</v>
@@ -5414,7 +5453,7 @@
         <v>165</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -5423,7 +5462,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -5758,7 +5797,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A1" s="21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -5770,64 +5809,64 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A3" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>4200</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2">
         <f>B5/B4</f>
         <v>1.5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4" s="16">
         <f>_xlfn.NORM.S.INV(1-E5)</f>
         <v>1.6448536269514715</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A5" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6">
         <v>6300</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0.05</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5" s="16">
         <f>_xlfn.NORM.S.INV(E6)</f>
@@ -5836,13 +5875,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.7">
       <c r="D6" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" s="6">
         <v>0.8</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6">
         <f>ROUNDUP(2*(H4+H5)^2/LN(E4)^2,0)</f>
@@ -5870,7 +5909,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5878,7 +5917,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="F2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.7">
@@ -5886,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -5895,7 +5934,7 @@
         <v>125</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <f>AVERAGE(A4:A73)</f>
@@ -5907,19 +5946,19 @@
         <v>210</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f>COUNT(A4:A73)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>190</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8">
         <f>_xlfn.VAR.S(A4:A73)</f>
@@ -5936,7 +5975,7 @@
         <v>180</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -5945,7 +5984,7 @@
         <v>150</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>4200</v>
@@ -5956,7 +5995,7 @@
         <v>165</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <f>(D5-1)*D6/D9</f>
@@ -5968,7 +6007,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="9">
         <f>_xlfn.CHISQ.DIST.RT(D10,D5-1)</f>
@@ -6307,7 +6346,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6318,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -6327,7 +6366,7 @@
         <v>125</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>180</v>
@@ -6338,19 +6377,19 @@
         <v>210</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f>COUNT(A4:A73)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>190</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -6364,7 +6403,7 @@
         <v>180</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -6373,7 +6412,7 @@
         <v>150</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>4200</v>
@@ -6384,7 +6423,7 @@
         <v>165</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -6393,7 +6432,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -6728,7 +6767,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6739,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7"/>
     </row>
@@ -6748,7 +6787,7 @@
         <v>125</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>180</v>
@@ -6759,19 +6798,19 @@
         <v>210</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f>COUNT(A4:A73)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:4" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>190</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D6" s="8" cm="1">
         <f t="array" ref="D6">SUM((A4:A73-D4)^2)/D5</f>
@@ -6788,7 +6827,7 @@
         <v>180</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -6797,7 +6836,7 @@
         <v>150</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>4200</v>
@@ -6808,7 +6847,7 @@
         <v>165</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <f>D5*D6/D9</f>
@@ -6820,7 +6859,7 @@
         <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="9">
         <f>_xlfn.CHISQ.DIST.RT(D10,D5)</f>
@@ -7178,37 +7217,37 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="E1" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F1" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.7">
@@ -7218,19 +7257,19 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" aca="1" ref="B4:B103" ca="1">INT(_xlfn.NORM.INV(_xlfn.RANDARRAY(100),150,40))</f>
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:C103" ca="1">_xlfn.RANDARRAY(100,1,0,300,TRUE)</f>
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="E4" s="15">
         <f ca="1">_xlfn.VAR.S(B4:B103)</f>
-        <v>1570.8423232323221</v>
+        <v>1169.5130303030307</v>
       </c>
       <c r="F4" s="15">
         <f ca="1">_xlfn.VAR.S(C4:C103)</f>
-        <v>7514.9473737373737</v>
+        <v>7476.6944444444443</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.7">
@@ -7239,11 +7278,11 @@
       </c>
       <c r="B5">
         <f ca="1"/>
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C5">
         <f ca="1"/>
-        <v>243</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.7">
@@ -7252,11 +7291,11 @@
       </c>
       <c r="B6">
         <f ca="1"/>
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C6">
         <f ca="1"/>
-        <v>200</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.7">
@@ -7265,11 +7304,11 @@
       </c>
       <c r="B7">
         <f ca="1"/>
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C7">
         <f ca="1"/>
-        <v>64</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.7">
@@ -7278,11 +7317,11 @@
       </c>
       <c r="B8">
         <f ca="1"/>
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="C8">
         <f ca="1"/>
-        <v>130</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.7">
@@ -7291,11 +7330,11 @@
       </c>
       <c r="B9">
         <f ca="1"/>
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="C9">
         <f ca="1"/>
-        <v>17</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.7">
@@ -7304,11 +7343,11 @@
       </c>
       <c r="B10">
         <f ca="1"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10">
         <f ca="1"/>
-        <v>253</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.7">
@@ -7317,11 +7356,11 @@
       </c>
       <c r="B11">
         <f ca="1"/>
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="C11">
         <f ca="1"/>
-        <v>35</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.7">
@@ -7330,11 +7369,11 @@
       </c>
       <c r="B12">
         <f ca="1"/>
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C12">
         <f ca="1"/>
-        <v>91</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.7">
@@ -7343,11 +7382,11 @@
       </c>
       <c r="B13">
         <f ca="1"/>
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="C13">
         <f ca="1"/>
-        <v>28</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.7">
@@ -7356,11 +7395,11 @@
       </c>
       <c r="B14">
         <f ca="1"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14">
         <f ca="1"/>
-        <v>245</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.7">
@@ -7369,11 +7408,11 @@
       </c>
       <c r="B15">
         <f ca="1"/>
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C15">
         <f ca="1"/>
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.7">
@@ -7382,11 +7421,11 @@
       </c>
       <c r="B16">
         <f ca="1"/>
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="C16">
         <f ca="1"/>
-        <v>47</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.7">
@@ -7395,11 +7434,11 @@
       </c>
       <c r="B17">
         <f ca="1"/>
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C17">
         <f ca="1"/>
-        <v>211</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.7">
@@ -7408,11 +7447,11 @@
       </c>
       <c r="B18">
         <f ca="1"/>
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C18">
         <f ca="1"/>
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.7">
@@ -7421,11 +7460,11 @@
       </c>
       <c r="B19">
         <f ca="1"/>
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="C19">
         <f ca="1"/>
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.7">
@@ -7434,11 +7473,11 @@
       </c>
       <c r="B20">
         <f ca="1"/>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C20">
         <f ca="1"/>
-        <v>210</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.7">
@@ -7447,11 +7486,11 @@
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C21">
         <f ca="1"/>
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.7">
@@ -7460,11 +7499,11 @@
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="C22">
         <f ca="1"/>
-        <v>268</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.7">
@@ -7473,11 +7512,11 @@
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C23">
         <f ca="1"/>
-        <v>223</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.7">
@@ -7486,11 +7525,11 @@
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="C24">
         <f ca="1"/>
-        <v>47</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.7">
@@ -7499,11 +7538,11 @@
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <f ca="1"/>
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.7">
@@ -7512,11 +7551,11 @@
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C26">
         <f ca="1"/>
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.7">
@@ -7525,11 +7564,11 @@
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <f ca="1"/>
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.7">
@@ -7538,11 +7577,11 @@
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C28">
         <f ca="1"/>
-        <v>286</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.7">
@@ -7551,11 +7590,11 @@
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="C29">
         <f ca="1"/>
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.7">
@@ -7564,11 +7603,11 @@
       </c>
       <c r="B30">
         <f ca="1"/>
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <f ca="1"/>
-        <v>213</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.7">
@@ -7577,11 +7616,11 @@
       </c>
       <c r="B31">
         <f ca="1"/>
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C31">
         <f ca="1"/>
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.7">
@@ -7590,11 +7629,11 @@
       </c>
       <c r="B32">
         <f ca="1"/>
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="C32">
         <f ca="1"/>
-        <v>61</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.7">
@@ -7603,11 +7642,11 @@
       </c>
       <c r="B33">
         <f ca="1"/>
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="C33">
         <f ca="1"/>
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.7">
@@ -7616,11 +7655,11 @@
       </c>
       <c r="B34">
         <f ca="1"/>
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="C34">
         <f ca="1"/>
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.7">
@@ -7629,11 +7668,11 @@
       </c>
       <c r="B35">
         <f ca="1"/>
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="C35">
         <f ca="1"/>
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.7">
@@ -7642,11 +7681,11 @@
       </c>
       <c r="B36">
         <f ca="1"/>
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <f ca="1"/>
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.7">
@@ -7655,11 +7694,11 @@
       </c>
       <c r="B37">
         <f ca="1"/>
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="C37">
         <f ca="1"/>
-        <v>25</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.7">
@@ -7668,11 +7707,11 @@
       </c>
       <c r="B38">
         <f ca="1"/>
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="C38">
         <f ca="1"/>
-        <v>298</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.7">
@@ -7681,11 +7720,11 @@
       </c>
       <c r="B39">
         <f ca="1"/>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C39">
         <f ca="1"/>
-        <v>10</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.7">
@@ -7694,11 +7733,11 @@
       </c>
       <c r="B40">
         <f ca="1"/>
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="C40">
         <f ca="1"/>
-        <v>202</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.7">
@@ -7707,11 +7746,11 @@
       </c>
       <c r="B41">
         <f ca="1"/>
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C41">
         <f ca="1"/>
-        <v>148</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.7">
@@ -7720,11 +7759,11 @@
       </c>
       <c r="B42">
         <f ca="1"/>
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C42">
         <f ca="1"/>
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.7">
@@ -7733,11 +7772,11 @@
       </c>
       <c r="B43">
         <f ca="1"/>
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="C43">
         <f ca="1"/>
-        <v>211</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.7">
@@ -7746,11 +7785,11 @@
       </c>
       <c r="B44">
         <f ca="1"/>
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="C44">
         <f ca="1"/>
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.7">
@@ -7759,11 +7798,11 @@
       </c>
       <c r="B45">
         <f ca="1"/>
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C45">
         <f ca="1"/>
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.7">
@@ -7772,11 +7811,11 @@
       </c>
       <c r="B46">
         <f ca="1"/>
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C46">
         <f ca="1"/>
-        <v>26</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.7">
@@ -7785,11 +7824,11 @@
       </c>
       <c r="B47">
         <f ca="1"/>
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C47">
         <f ca="1"/>
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.7">
@@ -7798,11 +7837,11 @@
       </c>
       <c r="B48">
         <f ca="1"/>
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C48">
         <f ca="1"/>
-        <v>271</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.7">
@@ -7811,11 +7850,11 @@
       </c>
       <c r="B49">
         <f ca="1"/>
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="C49">
         <f ca="1"/>
-        <v>278</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.7">
@@ -7824,11 +7863,11 @@
       </c>
       <c r="B50">
         <f ca="1"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C50">
         <f ca="1"/>
-        <v>189</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.7">
@@ -7837,11 +7876,11 @@
       </c>
       <c r="B51">
         <f ca="1"/>
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="C51">
         <f ca="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.7">
@@ -7850,11 +7889,11 @@
       </c>
       <c r="B52">
         <f ca="1"/>
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C52">
         <f ca="1"/>
-        <v>41</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.7">
@@ -7863,11 +7902,11 @@
       </c>
       <c r="B53">
         <f ca="1"/>
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C53">
         <f ca="1"/>
-        <v>295</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.7">
@@ -7876,11 +7915,11 @@
       </c>
       <c r="B54">
         <f ca="1"/>
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="C54">
         <f ca="1"/>
-        <v>18</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.7">
@@ -7889,11 +7928,11 @@
       </c>
       <c r="B55">
         <f ca="1"/>
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C55">
         <f ca="1"/>
-        <v>148</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.7">
@@ -7902,11 +7941,11 @@
       </c>
       <c r="B56">
         <f ca="1"/>
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C56">
         <f ca="1"/>
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.7">
@@ -7915,11 +7954,11 @@
       </c>
       <c r="B57">
         <f ca="1"/>
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C57">
         <f ca="1"/>
-        <v>196</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.7">
@@ -7928,11 +7967,11 @@
       </c>
       <c r="B58">
         <f ca="1"/>
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="C58">
         <f ca="1"/>
-        <v>273</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.7">
@@ -7941,11 +7980,11 @@
       </c>
       <c r="B59">
         <f ca="1"/>
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C59">
         <f ca="1"/>
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.7">
@@ -7954,11 +7993,11 @@
       </c>
       <c r="B60">
         <f ca="1"/>
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C60">
         <f ca="1"/>
-        <v>142</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.7">
@@ -7967,11 +8006,11 @@
       </c>
       <c r="B61">
         <f ca="1"/>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C61">
         <f ca="1"/>
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.7">
@@ -7980,11 +8019,11 @@
       </c>
       <c r="B62">
         <f ca="1"/>
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C62">
         <f ca="1"/>
-        <v>210</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.7">
@@ -7993,11 +8032,11 @@
       </c>
       <c r="B63">
         <f ca="1"/>
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C63">
         <f ca="1"/>
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.7">
@@ -8006,11 +8045,11 @@
       </c>
       <c r="B64">
         <f ca="1"/>
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C64">
         <f ca="1"/>
-        <v>192</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.7">
@@ -8019,11 +8058,11 @@
       </c>
       <c r="B65">
         <f ca="1"/>
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="C65">
         <f ca="1"/>
-        <v>202</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.7">
@@ -8032,11 +8071,11 @@
       </c>
       <c r="B66">
         <f ca="1"/>
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="C66">
         <f ca="1"/>
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.7">
@@ -8045,11 +8084,11 @@
       </c>
       <c r="B67">
         <f ca="1"/>
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C67">
         <f ca="1"/>
-        <v>153</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.7">
@@ -8058,11 +8097,11 @@
       </c>
       <c r="B68">
         <f ca="1"/>
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="C68">
         <f ca="1"/>
-        <v>201</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.7">
@@ -8071,11 +8110,11 @@
       </c>
       <c r="B69">
         <f ca="1"/>
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C69">
         <f ca="1"/>
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.7">
@@ -8084,11 +8123,11 @@
       </c>
       <c r="B70">
         <f ca="1"/>
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="C70">
         <f ca="1"/>
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.7">
@@ -8097,11 +8136,11 @@
       </c>
       <c r="B71">
         <f ca="1"/>
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C71">
         <f ca="1"/>
-        <v>99</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.7">
@@ -8110,11 +8149,11 @@
       </c>
       <c r="B72">
         <f ca="1"/>
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C72">
         <f ca="1"/>
-        <v>84</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.7">
@@ -8123,11 +8162,11 @@
       </c>
       <c r="B73">
         <f ca="1"/>
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="C73">
         <f ca="1"/>
-        <v>146</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.7">
@@ -8136,11 +8175,11 @@
       </c>
       <c r="B74">
         <f ca="1"/>
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="C74">
         <f ca="1"/>
-        <v>92</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.7">
@@ -8149,11 +8188,11 @@
       </c>
       <c r="B75">
         <f ca="1"/>
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C75">
         <f ca="1"/>
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.7">
@@ -8162,11 +8201,11 @@
       </c>
       <c r="B76">
         <f ca="1"/>
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C76">
         <f ca="1"/>
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.7">
@@ -8175,11 +8214,11 @@
       </c>
       <c r="B77">
         <f ca="1"/>
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C77">
         <f ca="1"/>
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.7">
@@ -8188,11 +8227,11 @@
       </c>
       <c r="B78">
         <f ca="1"/>
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="C78">
         <f ca="1"/>
-        <v>226</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.7">
@@ -8201,11 +8240,11 @@
       </c>
       <c r="B79">
         <f ca="1"/>
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C79">
         <f ca="1"/>
-        <v>189</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.7">
@@ -8214,11 +8253,11 @@
       </c>
       <c r="B80">
         <f ca="1"/>
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C80">
         <f ca="1"/>
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.7">
@@ -8227,11 +8266,11 @@
       </c>
       <c r="B81">
         <f ca="1"/>
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C81">
         <f ca="1"/>
-        <v>180</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.7">
@@ -8240,11 +8279,11 @@
       </c>
       <c r="B82">
         <f ca="1"/>
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C82">
         <f ca="1"/>
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.7">
@@ -8253,11 +8292,11 @@
       </c>
       <c r="B83">
         <f ca="1"/>
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C83">
         <f ca="1"/>
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.7">
@@ -8266,11 +8305,11 @@
       </c>
       <c r="B84">
         <f ca="1"/>
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C84">
         <f ca="1"/>
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.7">
@@ -8279,11 +8318,11 @@
       </c>
       <c r="B85">
         <f ca="1"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C85">
         <f ca="1"/>
-        <v>285</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.7">
@@ -8292,11 +8331,11 @@
       </c>
       <c r="B86">
         <f ca="1"/>
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="C86">
         <f ca="1"/>
-        <v>153</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.7">
@@ -8305,7 +8344,7 @@
       </c>
       <c r="B87">
         <f ca="1"/>
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="C87">
         <f ca="1"/>
@@ -8318,11 +8357,11 @@
       </c>
       <c r="B88">
         <f ca="1"/>
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C88">
         <f ca="1"/>
-        <v>256</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.7">
@@ -8331,11 +8370,11 @@
       </c>
       <c r="B89">
         <f ca="1"/>
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="C89">
         <f ca="1"/>
-        <v>159</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.7">
@@ -8344,11 +8383,11 @@
       </c>
       <c r="B90">
         <f ca="1"/>
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C90">
         <f ca="1"/>
-        <v>258</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.7">
@@ -8357,11 +8396,11 @@
       </c>
       <c r="B91">
         <f ca="1"/>
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C91">
         <f ca="1"/>
-        <v>88</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.7">
@@ -8370,11 +8409,11 @@
       </c>
       <c r="B92">
         <f ca="1"/>
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C92">
         <f ca="1"/>
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.7">
@@ -8383,11 +8422,11 @@
       </c>
       <c r="B93">
         <f ca="1"/>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C93">
         <f ca="1"/>
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.7">
@@ -8396,11 +8435,11 @@
       </c>
       <c r="B94">
         <f ca="1"/>
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C94">
         <f ca="1"/>
-        <v>112</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.7">
@@ -8409,11 +8448,11 @@
       </c>
       <c r="B95">
         <f ca="1"/>
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="C95">
         <f ca="1"/>
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.7">
@@ -8422,11 +8461,11 @@
       </c>
       <c r="B96">
         <f ca="1"/>
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C96">
         <f ca="1"/>
-        <v>38</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.7">
@@ -8435,11 +8474,11 @@
       </c>
       <c r="B97">
         <f ca="1"/>
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="C97">
         <f ca="1"/>
-        <v>291</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.7">
@@ -8448,11 +8487,11 @@
       </c>
       <c r="B98">
         <f ca="1"/>
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C98">
         <f ca="1"/>
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.7">
@@ -8461,11 +8500,11 @@
       </c>
       <c r="B99">
         <f ca="1"/>
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="C99">
         <f ca="1"/>
-        <v>222</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.7">
@@ -8474,11 +8513,11 @@
       </c>
       <c r="B100">
         <f ca="1"/>
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="C100">
         <f ca="1"/>
-        <v>226</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.7">
@@ -8487,11 +8526,11 @@
       </c>
       <c r="B101">
         <f ca="1"/>
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="C101">
         <f ca="1"/>
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.7">
@@ -8500,11 +8539,11 @@
       </c>
       <c r="B102">
         <f ca="1"/>
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="C102">
         <f ca="1"/>
-        <v>281</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.7">
@@ -8513,11 +8552,11 @@
       </c>
       <c r="B103" s="6">
         <f ca="1"/>
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="C103" s="6">
         <f ca="1"/>
-        <v>87</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +8578,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A1" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -8548,28 +8587,28 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="17" cm="1">
         <f t="array" ref="B4:B10">'年代別 (作業用データ)'!E4:E10</f>
         <v>190</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4:E10">'年代別 (作業用データ)'!H4:H10</f>
@@ -8578,13 +8617,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>317</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>165</v>
@@ -8592,13 +8631,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>279</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>174</v>
@@ -8606,13 +8645,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>180</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>143</v>
@@ -8620,13 +8659,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>124</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>34</v>
@@ -8634,13 +8673,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>138</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>64</v>
@@ -8648,13 +8687,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6">
         <v>100</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -8662,36 +8701,36 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="E14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.7">
       <c r="H17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.7">
       <c r="P18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="19.899999999999999" x14ac:dyDescent="0.7">
@@ -8742,7 +8781,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -8754,23 +8793,23 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.7">
@@ -8943,7 +8982,7 @@
         <v>311</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.7">
@@ -19535,7 +19574,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A1" s="21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -19547,64 +19586,64 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A3" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>4200</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2">
         <f>B5/B4</f>
         <v>1.5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4" s="16">
         <f>_xlfn.NORM.S.INV(1-E5)</f>
         <v>1.6448536269514715</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
       <c r="A5" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6">
         <v>6300</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0.05</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5" s="16">
         <f>_xlfn.NORM.S.INV(E6)</f>
@@ -19613,13 +19652,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.7">
       <c r="D6" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" s="6">
         <v>0.8</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6">
         <f>ROUNDUP(2*(H4+H5)^2/LN(E4)^2,0)+1</f>
